--- a/data_in/new_columns.xlsx
+++ b/data_in/new_columns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougl\Desktop\HW_LessonsCopy\BootCampHW\ETL-Project\data_in\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougl\Desktop\HW_LessonsCopy\BootCampHW\inhabitable_exoplanets_grp_prjt_2\ETL-Project\data_in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870F631C-4BAD-424B-8CE5-3227B6A01FE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{403BF07B-8DC1-4D1B-8106-CA78B7FBBFE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9B136809-5F44-4963-B1EA-327BF9A3C92D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Latitude</t>
   </si>
@@ -94,6 +94,33 @@
   </si>
   <si>
     <t>celsius temperature. Converted from kelvin as integer</t>
+  </si>
+  <si>
+    <t>habzone</t>
+  </si>
+  <si>
+    <t>habitability zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code 0 for uninhabitable, 1 and 2 for potentially inhabitable(1-optimistic only, 2-conservative (optimistic planets also includes cat 2 planets). </t>
+  </si>
+  <si>
+    <t>temp_class</t>
+  </si>
+  <si>
+    <t>temperature classification</t>
+  </si>
+  <si>
+    <t>general classification of believed planet temperature (hot, warm, cold).</t>
+  </si>
+  <si>
+    <t>planet_class</t>
+  </si>
+  <si>
+    <t>size classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miniterran-mercury size, subterran-mars size, terran-earth size, superterran-super earth/mini neptune size, neptunian-neptune size, jovian-jupiter size. </t>
   </si>
 </sst>
 </file>
@@ -445,16 +472,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F6D4BA-73C4-46DB-A68A-9096B7574CFE}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
     <col min="3" max="3" width="121.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -546,6 +573,39 @@
         <v>20</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
